--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tshb-Tshr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tshb-Tshr.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.817658333333334</v>
+        <v>4.078147666666667</v>
       </c>
       <c r="H2">
-        <v>11.452975</v>
+        <v>12.234443</v>
       </c>
       <c r="I2">
-        <v>0.7766040352984358</v>
+        <v>0.8119037611005604</v>
       </c>
       <c r="J2">
-        <v>0.7766040352984358</v>
+        <v>0.8119037611005603</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.22859</v>
+        <v>0.6327629999999999</v>
       </c>
       <c r="N2">
-        <v>0.68577</v>
+        <v>1.898289</v>
       </c>
       <c r="O2">
-        <v>0.06730352972305123</v>
+        <v>0.1382544270550543</v>
       </c>
       <c r="P2">
-        <v>0.06730352972305123</v>
+        <v>0.1382544270550544</v>
       </c>
       <c r="Q2">
-        <v>0.8726785184166667</v>
+        <v>2.580500952003</v>
       </c>
       <c r="R2">
-        <v>7.85410666575</v>
+        <v>23.224508568027</v>
       </c>
       <c r="S2">
-        <v>0.0522681927727498</v>
+        <v>0.1122492893148017</v>
       </c>
       <c r="T2">
-        <v>0.0522681927727498</v>
+        <v>0.1122492893148017</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.817658333333334</v>
+        <v>4.078147666666667</v>
       </c>
       <c r="H3">
-        <v>11.452975</v>
+        <v>12.234443</v>
       </c>
       <c r="I3">
-        <v>0.7766040352984358</v>
+        <v>0.8119037611005604</v>
       </c>
       <c r="J3">
-        <v>0.7766040352984358</v>
+        <v>0.8119037611005603</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>6.542951</v>
       </c>
       <c r="O3">
-        <v>0.6421448840062525</v>
+        <v>0.4765301499162115</v>
       </c>
       <c r="P3">
-        <v>0.6421448840062525</v>
+        <v>0.4765301499162115</v>
       </c>
       <c r="Q3">
-        <v>8.326250469913889</v>
+        <v>8.894373451254779</v>
       </c>
       <c r="R3">
-        <v>74.93625422922501</v>
+        <v>80.04936106129301</v>
       </c>
       <c r="S3">
-        <v>0.4986923081655016</v>
+        <v>0.386896620994786</v>
       </c>
       <c r="T3">
-        <v>0.4986923081655016</v>
+        <v>0.3868966209947859</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.817658333333334</v>
+        <v>4.078147666666667</v>
       </c>
       <c r="H4">
-        <v>11.452975</v>
+        <v>12.234443</v>
       </c>
       <c r="I4">
-        <v>0.7766040352984358</v>
+        <v>0.8119037611005604</v>
       </c>
       <c r="J4">
-        <v>0.7766040352984358</v>
+        <v>0.8119037611005603</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8133136666666667</v>
+        <v>1.444396333333334</v>
       </c>
       <c r="N4">
-        <v>2.439941</v>
+        <v>4.333189000000001</v>
       </c>
       <c r="O4">
-        <v>0.2394631459760435</v>
+        <v>0.3155908096798033</v>
       </c>
       <c r="P4">
-        <v>0.2394631459760435</v>
+        <v>0.3155908096798033</v>
       </c>
       <c r="Q4">
-        <v>3.104953697163889</v>
+        <v>5.890461536525224</v>
       </c>
       <c r="R4">
-        <v>27.944583274475</v>
+        <v>53.01415382872701</v>
       </c>
       <c r="S4">
-        <v>0.1859680454702538</v>
+        <v>0.2562293653478034</v>
       </c>
       <c r="T4">
-        <v>0.1859680454702538</v>
+        <v>0.2562293653478034</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.817658333333334</v>
+        <v>4.078147666666667</v>
       </c>
       <c r="H5">
-        <v>11.452975</v>
+        <v>12.234443</v>
       </c>
       <c r="I5">
-        <v>0.7766040352984358</v>
+        <v>0.8119037611005604</v>
       </c>
       <c r="J5">
-        <v>0.7766040352984358</v>
+        <v>0.8119037611005603</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.173517</v>
+        <v>0.3186579999999999</v>
       </c>
       <c r="N5">
-        <v>0.520551</v>
+        <v>0.9559739999999999</v>
       </c>
       <c r="O5">
-        <v>0.05108844029465279</v>
+        <v>0.06962461334893082</v>
       </c>
       <c r="P5">
-        <v>0.05108844029465278</v>
+        <v>0.06962461334893082</v>
       </c>
       <c r="Q5">
-        <v>0.6624286210250001</v>
+        <v>1.299534379164667</v>
       </c>
       <c r="R5">
-        <v>5.961857589225</v>
+        <v>11.695809412482</v>
       </c>
       <c r="S5">
-        <v>0.03967548888993056</v>
+        <v>0.05652848544316921</v>
       </c>
       <c r="T5">
-        <v>0.03967548888993055</v>
+        <v>0.05652848544316921</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>1.062263</v>
       </c>
       <c r="I6">
-        <v>0.07202999503170331</v>
+        <v>0.07049404087934076</v>
       </c>
       <c r="J6">
-        <v>0.07202999503170332</v>
+        <v>0.07049404087934076</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.22859</v>
+        <v>0.6327629999999999</v>
       </c>
       <c r="N6">
-        <v>0.68577</v>
+        <v>1.898289</v>
       </c>
       <c r="O6">
-        <v>0.06730352972305123</v>
+        <v>0.1382544270550543</v>
       </c>
       <c r="P6">
-        <v>0.06730352972305123</v>
+        <v>0.1382544270550544</v>
       </c>
       <c r="Q6">
-        <v>0.08094089972333332</v>
+        <v>0.2240535742229999</v>
       </c>
       <c r="R6">
-        <v>0.72846809751</v>
+        <v>2.016482168007</v>
       </c>
       <c r="S6">
-        <v>0.004847872911567476</v>
+        <v>0.009746113232568836</v>
       </c>
       <c r="T6">
-        <v>0.004847872911567476</v>
+        <v>0.009746113232568838</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1.062263</v>
       </c>
       <c r="I7">
-        <v>0.07202999503170331</v>
+        <v>0.07049404087934076</v>
       </c>
       <c r="J7">
-        <v>0.07202999503170332</v>
+        <v>0.07049404087934076</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>6.542951</v>
       </c>
       <c r="O7">
-        <v>0.6421448840062525</v>
+        <v>0.4765301499162115</v>
       </c>
       <c r="P7">
-        <v>0.6421448840062525</v>
+        <v>0.4765301499162115</v>
       </c>
       <c r="Q7">
         <v>0.772259417568111</v>
@@ -883,10 +883,10 @@
         <v>6.950334758113</v>
       </c>
       <c r="S7">
-        <v>0.04625369280460406</v>
+        <v>0.03359253586843179</v>
       </c>
       <c r="T7">
-        <v>0.04625369280460407</v>
+        <v>0.0335925358684318</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>1.062263</v>
       </c>
       <c r="I8">
-        <v>0.07202999503170331</v>
+        <v>0.07049404087934076</v>
       </c>
       <c r="J8">
-        <v>0.07202999503170332</v>
+        <v>0.07049404087934076</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.8133136666666667</v>
+        <v>1.444396333333334</v>
       </c>
       <c r="N8">
-        <v>2.439941</v>
+        <v>4.333189000000001</v>
       </c>
       <c r="O8">
-        <v>0.2394631459760435</v>
+        <v>0.3155908096798033</v>
       </c>
       <c r="P8">
-        <v>0.2394631459760435</v>
+        <v>0.3155908096798033</v>
       </c>
       <c r="Q8">
-        <v>0.2879843384981111</v>
+        <v>0.5114429274118889</v>
       </c>
       <c r="R8">
-        <v>2.591859046483</v>
+        <v>4.602986346707</v>
       </c>
       <c r="S8">
-        <v>0.01724852921493046</v>
+        <v>0.02224727143871231</v>
       </c>
       <c r="T8">
-        <v>0.01724852921493046</v>
+        <v>0.02224727143871231</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>1.062263</v>
       </c>
       <c r="I9">
-        <v>0.07202999503170331</v>
+        <v>0.07049404087934076</v>
       </c>
       <c r="J9">
-        <v>0.07202999503170332</v>
+        <v>0.07049404087934076</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.173517</v>
+        <v>0.3186579999999999</v>
       </c>
       <c r="N9">
-        <v>0.520551</v>
+        <v>0.9559739999999999</v>
       </c>
       <c r="O9">
-        <v>0.05108844029465279</v>
+        <v>0.06962461334893082</v>
       </c>
       <c r="P9">
-        <v>0.05108844029465278</v>
+        <v>0.06962461334893082</v>
       </c>
       <c r="Q9">
-        <v>0.061440229657</v>
+        <v>0.1128328676846666</v>
       </c>
       <c r="R9">
-        <v>0.552962066913</v>
+        <v>1.015495809162</v>
       </c>
       <c r="S9">
-        <v>0.003679900100601311</v>
+        <v>0.004908120339627823</v>
       </c>
       <c r="T9">
-        <v>0.003679900100601311</v>
+        <v>0.004908120339627823</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6807136666666667</v>
+        <v>0.5878206666666667</v>
       </c>
       <c r="H10">
-        <v>2.042141</v>
+        <v>1.763462</v>
       </c>
       <c r="I10">
-        <v>0.138473622901332</v>
+        <v>0.1170271037560039</v>
       </c>
       <c r="J10">
-        <v>0.138473622901332</v>
+        <v>0.1170271037560039</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.22859</v>
+        <v>0.6327629999999999</v>
       </c>
       <c r="N10">
-        <v>0.68577</v>
+        <v>1.898289</v>
       </c>
       <c r="O10">
-        <v>0.06730352972305123</v>
+        <v>0.1382544270550543</v>
       </c>
       <c r="P10">
-        <v>0.06730352972305123</v>
+        <v>0.1382544270550544</v>
       </c>
       <c r="Q10">
-        <v>0.1556043370633333</v>
+        <v>0.3719511685019999</v>
       </c>
       <c r="R10">
-        <v>1.40043903357</v>
+        <v>3.347560516518</v>
       </c>
       <c r="S10">
-        <v>0.009319763594798386</v>
+        <v>0.01617951517969872</v>
       </c>
       <c r="T10">
-        <v>0.009319763594798386</v>
+        <v>0.01617951517969873</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6807136666666667</v>
+        <v>0.5878206666666667</v>
       </c>
       <c r="H11">
-        <v>2.042141</v>
+        <v>1.763462</v>
       </c>
       <c r="I11">
-        <v>0.138473622901332</v>
+        <v>0.1170271037560039</v>
       </c>
       <c r="J11">
-        <v>0.138473622901332</v>
+        <v>0.1170271037560039</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>6.542951</v>
       </c>
       <c r="O11">
-        <v>0.6421448840062525</v>
+        <v>0.4765301499162115</v>
       </c>
       <c r="P11">
-        <v>0.6421448840062525</v>
+        <v>0.4765301499162115</v>
       </c>
       <c r="Q11">
-        <v>1.484625388676778</v>
+        <v>1.282027272929111</v>
       </c>
       <c r="R11">
-        <v>13.361628498091</v>
+        <v>11.538245456362</v>
       </c>
       <c r="S11">
-        <v>0.08892012851590138</v>
+        <v>0.05576694329710859</v>
       </c>
       <c r="T11">
-        <v>0.08892012851590138</v>
+        <v>0.0557669432971086</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.6807136666666667</v>
+        <v>0.5878206666666667</v>
       </c>
       <c r="H12">
-        <v>2.042141</v>
+        <v>1.763462</v>
       </c>
       <c r="I12">
-        <v>0.138473622901332</v>
+        <v>0.1170271037560039</v>
       </c>
       <c r="J12">
-        <v>0.138473622901332</v>
+        <v>0.1170271037560039</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8133136666666667</v>
+        <v>1.444396333333334</v>
       </c>
       <c r="N12">
-        <v>2.439941</v>
+        <v>4.333189000000001</v>
       </c>
       <c r="O12">
-        <v>0.2394631459760435</v>
+        <v>0.3155908096798033</v>
       </c>
       <c r="P12">
-        <v>0.2394631459760435</v>
+        <v>0.3155908096798033</v>
       </c>
       <c r="Q12">
-        <v>0.5536337281867778</v>
+        <v>0.849046015590889</v>
       </c>
       <c r="R12">
-        <v>4.982703553681</v>
+        <v>7.641414140318002</v>
       </c>
       <c r="S12">
-        <v>0.03315932937465327</v>
+        <v>0.03693267842883963</v>
       </c>
       <c r="T12">
-        <v>0.03315932937465326</v>
+        <v>0.03693267842883963</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.6807136666666667</v>
+        <v>0.5878206666666667</v>
       </c>
       <c r="H13">
-        <v>2.042141</v>
+        <v>1.763462</v>
       </c>
       <c r="I13">
-        <v>0.138473622901332</v>
+        <v>0.1170271037560039</v>
       </c>
       <c r="J13">
-        <v>0.138473622901332</v>
+        <v>0.1170271037560039</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.173517</v>
+        <v>0.3186579999999999</v>
       </c>
       <c r="N13">
-        <v>0.520551</v>
+        <v>0.9559739999999999</v>
       </c>
       <c r="O13">
-        <v>0.05108844029465279</v>
+        <v>0.06962461334893082</v>
       </c>
       <c r="P13">
-        <v>0.05108844029465278</v>
+        <v>0.06962461334893082</v>
       </c>
       <c r="Q13">
-        <v>0.118115393299</v>
+        <v>0.1873137579986666</v>
       </c>
       <c r="R13">
-        <v>1.063038539691</v>
+        <v>1.685823821988</v>
       </c>
       <c r="S13">
-        <v>0.007074401415978965</v>
+        <v>0.008147966850356984</v>
       </c>
       <c r="T13">
-        <v>0.007074401415978964</v>
+        <v>0.008147966850356984</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.06337666666666668</v>
+        <v>0.002888666666666667</v>
       </c>
       <c r="H14">
-        <v>0.19013</v>
+        <v>0.008666</v>
       </c>
       <c r="I14">
-        <v>0.01289234676852884</v>
+        <v>0.0005750942640950189</v>
       </c>
       <c r="J14">
-        <v>0.01289234676852884</v>
+        <v>0.0005750942640950189</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.22859</v>
+        <v>0.6327629999999999</v>
       </c>
       <c r="N14">
-        <v>0.68577</v>
+        <v>1.898289</v>
       </c>
       <c r="O14">
-        <v>0.06730352972305123</v>
+        <v>0.1382544270550543</v>
       </c>
       <c r="P14">
-        <v>0.06730352972305123</v>
+        <v>0.1382544270550544</v>
       </c>
       <c r="Q14">
-        <v>0.01448727223333334</v>
+        <v>0.001827841386</v>
       </c>
       <c r="R14">
-        <v>0.1303854501</v>
+        <v>0.016450572474</v>
       </c>
       <c r="S14">
-        <v>0.0008677004439355644</v>
+        <v>7.950932798510495E-05</v>
       </c>
       <c r="T14">
-        <v>0.0008677004439355644</v>
+        <v>7.950932798510496E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.06337666666666668</v>
+        <v>0.002888666666666667</v>
       </c>
       <c r="H15">
-        <v>0.19013</v>
+        <v>0.008666</v>
       </c>
       <c r="I15">
-        <v>0.01289234676852884</v>
+        <v>0.0005750942640950189</v>
       </c>
       <c r="J15">
-        <v>0.01289234676852884</v>
+        <v>0.0005750942640950189</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>6.542951</v>
       </c>
       <c r="O15">
-        <v>0.6421448840062525</v>
+        <v>0.4765301499162115</v>
       </c>
       <c r="P15">
-        <v>0.6421448840062525</v>
+        <v>0.4765301499162115</v>
       </c>
       <c r="Q15">
-        <v>0.1382234748477778</v>
+        <v>0.006300134818444444</v>
       </c>
       <c r="R15">
-        <v>1.24401127363</v>
+        <v>0.056701213366</v>
       </c>
       <c r="S15">
-        <v>0.008278754520245337</v>
+        <v>0.0002740497558851527</v>
       </c>
       <c r="T15">
-        <v>0.008278754520245337</v>
+        <v>0.0002740497558851527</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.06337666666666668</v>
+        <v>0.002888666666666667</v>
       </c>
       <c r="H16">
-        <v>0.19013</v>
+        <v>0.008666</v>
       </c>
       <c r="I16">
-        <v>0.01289234676852884</v>
+        <v>0.0005750942640950189</v>
       </c>
       <c r="J16">
-        <v>0.01289234676852884</v>
+        <v>0.0005750942640950189</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.8133136666666667</v>
+        <v>1.444396333333334</v>
       </c>
       <c r="N16">
-        <v>2.439941</v>
+        <v>4.333189000000001</v>
       </c>
       <c r="O16">
-        <v>0.2394631459760435</v>
+        <v>0.3155908096798033</v>
       </c>
       <c r="P16">
-        <v>0.2394631459760435</v>
+        <v>0.3155908096798033</v>
       </c>
       <c r="Q16">
-        <v>0.05154510914777779</v>
+        <v>0.004172379541555556</v>
       </c>
       <c r="R16">
-        <v>0.4639059823300001</v>
+        <v>0.03755141587400001</v>
       </c>
       <c r="S16">
-        <v>0.003087241916205995</v>
+        <v>0.0001814944644479576</v>
       </c>
       <c r="T16">
-        <v>0.003087241916205994</v>
+        <v>0.0001814944644479576</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.06337666666666668</v>
+        <v>0.002888666666666667</v>
       </c>
       <c r="H17">
-        <v>0.19013</v>
+        <v>0.008666</v>
       </c>
       <c r="I17">
-        <v>0.01289234676852884</v>
+        <v>0.0005750942640950189</v>
       </c>
       <c r="J17">
-        <v>0.01289234676852884</v>
+        <v>0.0005750942640950189</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.173517</v>
+        <v>0.3186579999999999</v>
       </c>
       <c r="N17">
-        <v>0.520551</v>
+        <v>0.9559739999999999</v>
       </c>
       <c r="O17">
-        <v>0.05108844029465279</v>
+        <v>0.06962461334893082</v>
       </c>
       <c r="P17">
-        <v>0.05108844029465278</v>
+        <v>0.06962461334893082</v>
       </c>
       <c r="Q17">
-        <v>0.01099692907</v>
+        <v>0.0009204967426666665</v>
       </c>
       <c r="R17">
-        <v>0.09897236163000001</v>
+        <v>0.008284470683999999</v>
       </c>
       <c r="S17">
-        <v>0.0006586498881419455</v>
+        <v>4.00407157768036E-05</v>
       </c>
       <c r="T17">
-        <v>0.0006586498881419455</v>
+        <v>4.00407157768036E-05</v>
       </c>
     </row>
   </sheetData>
